--- a/Public/template/template_lsyye.xlsx
+++ b/Public/template/template_lsyye.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,44 +109,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +137,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -236,6 +229,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -243,22 +250,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,7 +272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,84 +290,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,13 +380,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,54 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,148 +586,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,20 +735,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1102,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
